--- a/models/ATT2ITM_2/pois/madrid/ad8ea3dcf66a1113cfc74f8e48320aa3/att_text.xlsx
+++ b/models/ATT2ITM_2/pois/madrid/ad8ea3dcf66a1113cfc74f8e48320aa3/att_text.xlsx
@@ -421,7 +421,7 @@
     <t>Wanda Metropolitano</t>
   </si>
   <si>
-    <t>no</t>
+    <t>el</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02723190933465958</v>
+        <v>0.02644517458975315</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.001664977287873626</v>
+        <v>0.02858145907521248</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.143996000289917</v>
+        <v>0.05854104086756706</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03566389158368111</v>
+        <v>0.0438130758702755</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06116162240505219</v>
+        <v>0.04786625504493713</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.159768670797348</v>
+        <v>0.005768594797700644</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -851,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.02582511305809021</v>
+        <v>0.02866285853087902</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -859,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02654247358441353</v>
+        <v>0.02605069428682327</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.2270916849374771</v>
+        <v>-0.02363945171236992</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -875,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0705924779176712</v>
+        <v>-0.00112161785364151</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1249009519815445</v>
+        <v>0.02742592431604862</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01979650929570198</v>
+        <v>0.004196058958768845</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -899,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02254688553512096</v>
+        <v>0.03863755986094475</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -907,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2462087869644165</v>
+        <v>0.005860290490090847</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -915,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.009118332527577877</v>
+        <v>-0.02680091559886932</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -923,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.06828448176383972</v>
+        <v>-0.02547126635909081</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -931,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.04063796624541283</v>
+        <v>-0.08242511749267578</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -939,7 +939,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1181687489151955</v>
+        <v>-0.05430565774440765</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -947,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.02475590445101261</v>
+        <v>-0.02056302689015865</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -955,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1184972152113914</v>
+        <v>0.01150072738528252</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -963,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.04229672625660896</v>
+        <v>0.02650769799947739</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -971,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.09721893817186356</v>
+        <v>-0.07159511744976044</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -979,7 +979,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01771561242640018</v>
+        <v>0.0579531155526638</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -987,7 +987,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.1080663353204727</v>
+        <v>-0.004990175366401672</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -995,7 +995,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.07128895819187164</v>
+        <v>-0.02592606842517853</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.02894526347517967</v>
+        <v>-0.02624731510877609</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01516785845160484</v>
+        <v>0.03094606846570969</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0192963033914566</v>
+        <v>0.03860154002904892</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.009698424488306046</v>
+        <v>0.0159921683371067</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.009137014858424664</v>
+        <v>0.08934935927391052</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.2066390216350555</v>
+        <v>0.04135732352733612</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2154457420110703</v>
+        <v>-0.03367913886904716</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.06059349700808525</v>
+        <v>0.01026834733784199</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.08912499994039536</v>
+        <v>0.02395711094141006</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.1684780120849609</v>
+        <v>-0.03062940761446953</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.05876649171113968</v>
+        <v>-0.008171543478965759</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1635709404945374</v>
+        <v>-0.0242218729108572</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1099,7 +1099,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.009711991995573044</v>
+        <v>0.02263829857110977</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1107,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.01745251007378101</v>
+        <v>0.003193280193954706</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1115,7 +1115,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.07751147449016571</v>
+        <v>0.08152377605438232</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1123,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.04272951930761337</v>
+        <v>0.05306227505207062</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1131,7 +1131,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1987926661968231</v>
+        <v>-0.06043200194835663</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1139,7 +1139,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.1292227804660797</v>
+        <v>-0.01713793352246284</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1147,7 +1147,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.05015100166201591</v>
+        <v>0.06619825214147568</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1155,7 +1155,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.06419579684734344</v>
+        <v>0.03948301821947098</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1163,7 +1163,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.07886639982461929</v>
+        <v>-0.007296753581613302</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1171,7 +1171,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.02592035196721554</v>
+        <v>0.04829274863004684</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.07887181639671326</v>
+        <v>0.01767875626683235</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1187,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.1724550426006317</v>
+        <v>0.0003033801913261414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1195,7 +1195,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1007945910096169</v>
+        <v>-0.03591246530413628</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1203,7 +1203,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.01307344250380993</v>
+        <v>0.02717983722686768</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1211,7 +1211,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.08795841038227081</v>
+        <v>-0.04839520156383514</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1219,7 +1219,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.1120895817875862</v>
+        <v>-0.00758073478937149</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1227,7 +1227,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.1858786195516586</v>
+        <v>-0.06363990157842636</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1235,7 +1235,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.04924939200282097</v>
+        <v>-0.01565032266080379</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.003507066750898957</v>
+        <v>-0.004895614460110664</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.08076927065849304</v>
+        <v>-0.01080658286809921</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1259,7 +1259,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.07430707663297653</v>
+        <v>-0.02818277105689049</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1267,7 +1267,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.006139093544334173</v>
+        <v>-0.04547712206840515</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1275,7 +1275,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.1242067739367485</v>
+        <v>-0.02017189189791679</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.0494762547314167</v>
+        <v>-0.05626610666513443</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1291,7 +1291,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.06403688341379166</v>
+        <v>-0.00492263026535511</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1299,7 +1299,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.07179713994264603</v>
+        <v>-0.05653904005885124</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1307,7 +1307,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1977720260620117</v>
+        <v>-0.03268317878246307</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1315,7 +1315,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.1357044279575348</v>
+        <v>0.05089400336146355</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1323,7 +1323,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.1091573610901833</v>
+        <v>-0.05173088610172272</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1331,7 +1331,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1176086068153381</v>
+        <v>-0.0129594411700964</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1339,7 +1339,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.09870916604995728</v>
+        <v>0.05494849756360054</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1347,7 +1347,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.02924036420881748</v>
+        <v>-0.03833058848977089</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1355,7 +1355,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.05483614653348923</v>
+        <v>0.02440397255122662</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1363,7 +1363,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.03562910854816437</v>
+        <v>0.05478239059448242</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1371,7 +1371,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.03014471381902695</v>
+        <v>-0.03656921908259392</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1379,7 +1379,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1449068486690521</v>
+        <v>-0.04076679795980453</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1387,7 +1387,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.02788239903748035</v>
+        <v>0.04844409599900246</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1395,7 +1395,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.1488319933414459</v>
+        <v>-0.02951251901686192</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1403,7 +1403,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.1084740832448006</v>
+        <v>-0.003232178278267384</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1411,7 +1411,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.1122159585356712</v>
+        <v>0.01473437249660492</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1419,7 +1419,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.09496387094259262</v>
+        <v>0.005027965176850557</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1427,7 +1427,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.029316121712327</v>
+        <v>-0.0009829029440879822</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.2497879862785339</v>
+        <v>0.005836565047502518</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.06835075467824936</v>
+        <v>-0.02832100726664066</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1451,7 +1451,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.1924435198307037</v>
+        <v>-0.01563811302185059</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.1584038436412811</v>
+        <v>-0.0003687338903546333</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1467,7 +1467,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.07824334502220154</v>
+        <v>-0.03015160746872425</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1475,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.01574158109724522</v>
+        <v>0.04032589867711067</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1483,7 +1483,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1252435892820358</v>
+        <v>-0.04026233032345772</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1491,7 +1491,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.006881447974592447</v>
+        <v>0.03141788765788078</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1499,7 +1499,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.3108194172382355</v>
+        <v>-0.08803508430719376</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1507,7 +1507,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.1253957152366638</v>
+        <v>-0.03992601856589317</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.05041155591607094</v>
+        <v>0.03762850537896156</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1523,7 +1523,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.001580851036123931</v>
+        <v>-0.02673275396227837</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.1207664608955383</v>
+        <v>-0.04942956939339638</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1539,7 +1539,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.161529541015625</v>
+        <v>-0.03061344474554062</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.1714126318693161</v>
+        <v>-0.1117067113518715</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1555,7 +1555,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.006822883617132902</v>
+        <v>0.03908052295446396</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1563,7 +1563,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1903610080480576</v>
+        <v>0.02212160266935825</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1571,7 +1571,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.1257199794054031</v>
+        <v>0.0405014231801033</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1579,7 +1579,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.01568157970905304</v>
+        <v>-0.04356152564287186</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.03776276111602783</v>
+        <v>-0.03478874266147614</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.08358733355998993</v>
+        <v>0.01153452601283789</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.02237027138471603</v>
+        <v>-0.04361241310834885</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.3095934987068176</v>
+        <v>-0.02877399884164333</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.05670508369803429</v>
+        <v>0.01876598037779331</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.1636816561222076</v>
+        <v>-0.02730368264019489</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.1551234126091003</v>
+        <v>-0.0356324128806591</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.009328207932412624</v>
+        <v>0.00756595004349947</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.2388464063405991</v>
+        <v>0.002646961947903037</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.04823677986860275</v>
+        <v>-0.04497546330094337</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.2045894712209702</v>
+        <v>-0.101141981780529</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.09678390622138977</v>
+        <v>-0.06047642603516579</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.07515265047550201</v>
+        <v>0.01402320060878992</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.02515550330281258</v>
+        <v>0.03536102175712585</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.07514061778783798</v>
+        <v>-0.1131041795015335</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.04450381919741631</v>
+        <v>-0.01362222526222467</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.03145861253142357</v>
+        <v>0.04522600397467613</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.082691989839077</v>
+        <v>0.007307623978704214</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.1398808658123016</v>
+        <v>-0.02908360213041306</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.04082520306110382</v>
+        <v>0.01935539022088051</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.09366094321012497</v>
+        <v>-0.0524100661277771</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.1198485642671585</v>
+        <v>-0.06680228561162949</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.08628597855567932</v>
+        <v>0.05929967015981674</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.1694168448448181</v>
+        <v>-0.002190083265304565</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.08888237178325653</v>
+        <v>-0.02165385708212852</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.2471807599067688</v>
+        <v>-0.07507848739624023</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.1558260917663574</v>
+        <v>-0.01523554883897305</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.2771352827548981</v>
+        <v>-0.01213733106851578</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.07358973473310471</v>
+        <v>-0.04678767174482346</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.2603833079338074</v>
+        <v>-0.01741739548742771</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.127013236284256</v>
+        <v>-0.03670401871204376</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.1959530562162399</v>
+        <v>-0.019779397174716</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1843,7 +1843,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.03975421190261841</v>
+        <v>0.03499685227870941</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.04530036821961403</v>
+        <v>-0.03210711106657982</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.0687662735581398</v>
+        <v>-0.03876043483614922</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.003341163508594036</v>
+        <v>0.04722781106829643</v>
       </c>
     </row>
   </sheetData>
